--- a/Modelo Relacional.xlsx
+++ b/Modelo Relacional.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14115" windowHeight="5190"/>
+    <workbookView windowWidth="10245" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,26 @@
     <t>Modelo Relacional</t>
   </si>
   <si>
-    <t>Ubicación(pais, provincia/estado, ciudad)</t>
-  </si>
-  <si>
-    <r>
+    <t>Entidades</t>
+  </si>
+  <si>
+    <t>Relaciones</t>
+  </si>
+  <si>
+    <t>Fuertes</t>
+  </si>
+  <si>
+    <t>Debiles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Aeropuerto(</t>
     </r>
     <r>
@@ -33,7 +49,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>codigo_vuelo</t>
@@ -43,7 +59,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>, uso_horario, dirección, teléfono)</t>
@@ -51,7 +67,100 @@
   </si>
   <si>
     <r>
-      <t>Vuelo(</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>salida(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fecha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ofrece(porc_sobreventa, precio, cant_asientos)</t>
+  </si>
+  <si>
+    <t>Avion(modelo, total_asientos, cant_cabinas, nombre_fabricante)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instancia_vuelo(</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="double"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fecha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, estado)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reserva(</t>
     </r>
     <r>
       <rPr>
@@ -59,44 +168,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>nro_vuelo)</t>
-    </r>
-  </si>
-  <si>
-    <t>Avion(modelo, total_asientos, cant_cabinas, nombre_fabricante)</t>
-  </si>
-  <si>
-    <r>
-      <t>instancia_vuelo(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="double"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fecha</t>
+      <t>numero</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, estado)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Reserva(</t>
+      <t>, fecha_vencimiento, estado, fecha_solicitud)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ubicación(pais, provincia/estado, ciudad)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vuelo(</t>
     </r>
     <r>
       <rPr>
@@ -104,67 +204,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>numero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, fecha_vencimiento, estado, fecha_solicitud)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>salida(</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="double"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hora</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="double"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fecha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>nro_vuelo)</t>
     </r>
   </si>
   <si>
@@ -174,22 +217,7 @@
     <t>Tipo(nombre)</t>
   </si>
   <si>
-    <t>Entidades</t>
-  </si>
-  <si>
-    <t>Relaciones</t>
-  </si>
-  <si>
-    <t>Fuertes</t>
-  </si>
-  <si>
-    <t>Debiles</t>
-  </si>
-  <si>
     <t>Comodidad(nombre)</t>
-  </si>
-  <si>
-    <t>ofrece(porc_sobreventa, precio, cant_asientos)</t>
   </si>
   <si>
     <t>Pasajero(nacionalidad)</t>
@@ -204,54 +232,211 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="double"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +449,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -275,25 +646,276 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,23 +923,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -608,142 +1268,142 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="28.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="43.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="21" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:A8">
@@ -754,30 +1414,39 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Modelo Relacional.xlsx
+++ b/Modelo Relacional.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hola\Desktop\ProyectoBD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="8295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="8300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Modelo Relacional</t>
   </si>
@@ -34,6 +39,74 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reserva(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, fecha_vencimiento, estado, fecha_solicitud)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pasajero(nacionalidad)</t>
+  </si>
+  <si>
+    <t>Empelado(nro_legajo, password)</t>
+  </si>
+  <si>
+    <t>Persona(nombre, apellido, dirección, dni, tel)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ubicación(pais, provincia/estado, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ciudad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Aeropuerto(</t>
     </r>
     <r>
@@ -45,7 +118,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>codigo_vuelo</t>
+      <t>codigo_aeropuerto</t>
     </r>
     <r>
       <rPr>
@@ -59,15 +132,174 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>salida(</t>
+    <t>se_ubica_en(ciudad, codigo_aeropuerto)
+fk(ciudad) ref a Ubicación(ciudad)
+fk(codigo_aeropuerto) ref a Aeropuerto(codigo_aeropuerto)</t>
+  </si>
+  <si>
+    <r>
+      <t>Vuelo(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nro_vuelo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, codigo_aeropuerto)
+fk(codigo_aeropuerto) ref a Aeropuerto(codigo_aeropuerto)</t>
+    </r>
+  </si>
+  <si>
+    <t>realizado_por(hora, fecha, nro_vuelo, ID)
+fk(fecha, hora) ref a Salida
+fk(nro_vuelo) ref a Vuelo
+fk(ID) ref a Avion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avion(modelo, total_asientos, cant_cabinas, nombre_fabricante, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>solicita(nro_reserva, horario, fecha, hora, nro_vuelo, nombre_clase)
+fk(nro_reserva) ref a Reserva(nro_reserva)
+fk(horario) ref a Instancia_vuelo(horario)
+fk(fecha, horario) ref a Salida(fecha, hora)
+fk(nro_vuelo) ref a Vuelo(nro_vuelo)
+fk(nombre_clase) ref a Clase(nombre_clase)</t>
+  </si>
+  <si>
+    <t>re_gestion_emp(nro_reserva, nro_legajo, dni)
+fk(nro_reserva) ref a Reserva(nro_reserva)
+fk(nro_legajo) ref a Empleado(nro_legajo)
+fk(dni) ref a Pasajero -&gt; Persona(dni)</t>
+  </si>
+  <si>
+    <r>
+      <t>Clase(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre_clase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nombre_tipo)                                                    fk(nombre_tipo) ref a Tipo(nombre_tipo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tipo(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre_tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Comodidad(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre_clase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>clase_posee_tipo(nombre_clase, nombre_tipo)
+fk(nombre_clase) ref a Clase(nombre_clase)
+fk(nombre_tipo) ref a Tipo(nombre_tipo)</t>
+  </si>
+  <si>
+    <t>tipo_ofrece_comodidad(nombre_tipo, nombre_clase)
+fk(nombre_tipo) ref a Tipo(nombre_tipo)
+fk(nombre_clase) ref a Clase(nombre_clase)</t>
+  </si>
+  <si>
+    <r>
+      <t>Salida(</t>
     </r>
     <r>
       <rPr>
@@ -106,25 +338,94 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Avion(modelo, total_asientos, cant_cabinas, nombre_fabricante)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>instancia_vuelo(</t>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, nro_vuelo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+fk(nro_vuelo) ref a Vuelo(nro_vuelo)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">salida_ofrece_clase( </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nombre_clase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fecha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, porc_sobreventa, precio, cant_asientos) fk(nombre_clase) ref a Clase(nombre_clase)                                                                                       fk(fecha, hora) ref a Salida(fecha, hora)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Instancia_vuelo(</t>
     </r>
     <r>
       <rPr>
@@ -135,198 +436,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>fecha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, estado)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reserva(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>numero</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, fecha_vencimiento, estado, fecha_solicitud)</t>
-    </r>
-  </si>
-  <si>
-    <t>Ubicación(pais, provincia/estado, ciudad)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vuelo(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nro_vuelo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clase(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nombre</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, nombre_tipo)                                                    fk(nombre_tipo) ref a Tipo(nombre_tipo)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tipo(nombre)</t>
-  </si>
-  <si>
-    <t>Comodidad(nombre)</t>
-  </si>
-  <si>
-    <t>Pasajero(nacionalidad)</t>
-  </si>
-  <si>
-    <t>Empelado(nro_legajo, password)</t>
-  </si>
-  <si>
-    <t>Persona(nombre, apellido, dirección, dni, tel)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">salida_ofrece_clase( </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nombre_clase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fecha</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hora</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, porc_sobreventa, precio, cant_asientos) fk(nombre_clase) ref a Clase(nombre_clase)                                                                                       fk(fecha, hora) ref a salida(fecha, hora)</t>
+      <t>horario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, hora, fecha, estado, nro_vuelo)
+fk(fecha, hora) ref a Salida(fecha, hora)
+fk(nro_vuelo) ref a Vuelo(nro_vuelo)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,6 +506,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,12 +558,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -423,12 +573,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +592,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -486,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,7 +678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,17 +887,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="59.54296875" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
@@ -750,7 +907,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75">
+    <row r="2" spans="1:3" ht="18.5">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -759,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,98 +925,118 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" ht="43.5">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="58">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="58">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="87">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.5">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.149999999999999" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:3" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A2:A8">
@@ -870,7 +1047,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -880,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -892,7 +1069,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
